--- a/output7/【河洛文讀注音-閩拼調符】《深慮論》（測試用）.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《深慮論》（測試用）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB2E41-B75D-45B4-AF9C-3B862A3251CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826039E4-E6D6-40D4-93C8-D5E7A5E8A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="28800" windowHeight="13035" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -24090,8 +24090,9 @@
       <c r="N79" s="70"/>
       <c r="O79" s="70"/>
       <c r="P79" s="70"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
+      <c r="Q79" s="70"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="62"/>
       <c r="V79" s="65"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24129,9 +24130,9 @@
       </c>
       <c r="O80" s="71"/>
       <c r="P80" s="71"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
-      <c r="S80" s="19"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="74"/>
       <c r="V80" s="65"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -24180,9 +24181,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="21"/>
+      <c r="Q81" s="69"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="73"/>
       <c r="V81" s="65"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24220,9 +24221,9 @@
       </c>
       <c r="O82" s="72"/>
       <c r="P82" s="72"/>
-      <c r="Q82" s="60"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="31"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="75"/>
       <c r="V82" s="66"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
@@ -26239,10 +26240,11 @@
       <c r="L131" s="70"/>
       <c r="M131" s="70"/>
       <c r="N131" s="70"/>
-      <c r="O131" s="57"/>
-      <c r="P131" s="57"/>
-      <c r="Q131" s="57"/>
-      <c r="R131" s="57"/>
+      <c r="O131" s="70"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="70"/>
+      <c r="R131" s="70"/>
+      <c r="S131" s="62"/>
       <c r="V131" s="36"/>
     </row>
     <row r="132" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -26276,11 +26278,11 @@
       </c>
       <c r="M132" s="71"/>
       <c r="N132" s="71"/>
-      <c r="O132" s="58"/>
-      <c r="P132" s="58"/>
-      <c r="Q132" s="58"/>
-      <c r="R132" s="58"/>
-      <c r="S132" s="19"/>
+      <c r="O132" s="71"/>
+      <c r="P132" s="71"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="71"/>
+      <c r="S132" s="74"/>
       <c r="V132" s="7"/>
     </row>
     <row r="133" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -26323,11 +26325,11 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O133" s="59"/>
-      <c r="P133" s="59"/>
-      <c r="Q133" s="59"/>
-      <c r="R133" s="59"/>
-      <c r="S133" s="21"/>
+      <c r="O133" s="69"/>
+      <c r="P133" s="69"/>
+      <c r="Q133" s="69"/>
+      <c r="R133" s="69"/>
+      <c r="S133" s="73"/>
       <c r="V133" s="7"/>
     </row>
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -26361,11 +26363,11 @@
       </c>
       <c r="M134" s="72"/>
       <c r="N134" s="72"/>
-      <c r="O134" s="60"/>
-      <c r="P134" s="60"/>
-      <c r="Q134" s="60"/>
-      <c r="R134" s="60"/>
-      <c r="S134" s="31"/>
+      <c r="O134" s="72"/>
+      <c r="P134" s="72"/>
+      <c r="Q134" s="72"/>
+      <c r="R134" s="72"/>
+      <c r="S134" s="75"/>
       <c r="V134" s="7"/>
     </row>
     <row r="135" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
@@ -28037,17 +28039,18 @@
       <c r="E175" s="70"/>
       <c r="F175" s="70"/>
       <c r="G175" s="70"/>
-      <c r="H175" s="57"/>
-      <c r="I175" s="57"/>
-      <c r="J175" s="57"/>
-      <c r="K175" s="57"/>
-      <c r="L175" s="57"/>
-      <c r="M175" s="57"/>
-      <c r="N175" s="57"/>
-      <c r="O175" s="57"/>
-      <c r="P175" s="57"/>
-      <c r="Q175" s="57"/>
-      <c r="R175" s="57"/>
+      <c r="H175" s="70"/>
+      <c r="I175" s="70"/>
+      <c r="J175" s="70"/>
+      <c r="K175" s="70"/>
+      <c r="L175" s="70"/>
+      <c r="M175" s="70"/>
+      <c r="N175" s="70"/>
+      <c r="O175" s="70"/>
+      <c r="P175" s="70"/>
+      <c r="Q175" s="70"/>
+      <c r="R175" s="70"/>
+      <c r="S175" s="63"/>
     </row>
     <row r="176" spans="2:22" ht="44.25">
       <c r="B176" s="17"/>
@@ -28060,19 +28063,20 @@
       </c>
       <c r="F176" s="71"/>
       <c r="G176" s="71"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="58"/>
-      <c r="L176" s="58"/>
-      <c r="M176" s="58"/>
-      <c r="N176" s="58"/>
-      <c r="O176" s="58"/>
-      <c r="P176" s="58"/>
-      <c r="Q176" s="58"/>
-      <c r="R176" s="58"/>
-    </row>
-    <row r="177" spans="2:18" ht="114">
+      <c r="H176" s="71"/>
+      <c r="I176" s="71"/>
+      <c r="J176" s="71"/>
+      <c r="K176" s="71"/>
+      <c r="L176" s="71"/>
+      <c r="M176" s="71"/>
+      <c r="N176" s="71"/>
+      <c r="O176" s="71"/>
+      <c r="P176" s="71"/>
+      <c r="Q176" s="71"/>
+      <c r="R176" s="71"/>
+      <c r="S176" s="78"/>
+    </row>
+    <row r="177" spans="2:19" ht="114">
       <c r="B177" s="20">
         <f>B173+1</f>
         <v>44</v>
@@ -28092,19 +28096,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
-      <c r="J177" s="59"/>
-      <c r="K177" s="59"/>
-      <c r="L177" s="59"/>
-      <c r="M177" s="59"/>
-      <c r="N177" s="59"/>
-      <c r="O177" s="59"/>
-      <c r="P177" s="59"/>
-      <c r="Q177" s="59"/>
-      <c r="R177" s="59"/>
-    </row>
-    <row r="178" spans="2:18">
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="69"/>
+      <c r="N177" s="69"/>
+      <c r="O177" s="69"/>
+      <c r="P177" s="69"/>
+      <c r="Q177" s="69"/>
+      <c r="R177" s="69"/>
+      <c r="S177" s="77"/>
+    </row>
+    <row r="178" spans="2:19">
       <c r="B178" s="22"/>
       <c r="C178" s="6"/>
       <c r="D178" s="72" t="s">
@@ -28115,57 +28120,60 @@
       </c>
       <c r="F178" s="72"/>
       <c r="G178" s="72"/>
-      <c r="H178" s="60"/>
-      <c r="I178" s="60"/>
-      <c r="J178" s="60"/>
-      <c r="K178" s="60"/>
-      <c r="L178" s="60"/>
-      <c r="M178" s="60"/>
-      <c r="N178" s="60"/>
-      <c r="O178" s="60"/>
-      <c r="P178" s="60"/>
-      <c r="Q178" s="60"/>
-      <c r="R178" s="60"/>
-    </row>
-    <row r="179" spans="2:18">
+      <c r="H178" s="72"/>
+      <c r="I178" s="72"/>
+      <c r="J178" s="72"/>
+      <c r="K178" s="72"/>
+      <c r="L178" s="72"/>
+      <c r="M178" s="72"/>
+      <c r="N178" s="72"/>
+      <c r="O178" s="72"/>
+      <c r="P178" s="72"/>
+      <c r="Q178" s="72"/>
+      <c r="R178" s="72"/>
+      <c r="S178" s="78"/>
+    </row>
+    <row r="179" spans="2:19">
       <c r="B179" s="12"/>
       <c r="C179" s="34"/>
       <c r="D179" s="70"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="57"/>
-      <c r="I179" s="57"/>
-      <c r="J179" s="57"/>
-      <c r="K179" s="57"/>
-      <c r="L179" s="57"/>
-      <c r="M179" s="57"/>
-      <c r="N179" s="57"/>
-      <c r="O179" s="57"/>
-      <c r="P179" s="57"/>
-      <c r="Q179" s="57"/>
-      <c r="R179" s="57"/>
-    </row>
-    <row r="180" spans="2:18" ht="44.25">
+      <c r="E179" s="70"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
+      <c r="J179" s="70"/>
+      <c r="K179" s="70"/>
+      <c r="L179" s="70"/>
+      <c r="M179" s="70"/>
+      <c r="N179" s="70"/>
+      <c r="O179" s="70"/>
+      <c r="P179" s="70"/>
+      <c r="Q179" s="70"/>
+      <c r="R179" s="70"/>
+      <c r="S179" s="63"/>
+    </row>
+    <row r="180" spans="2:19" ht="44.25">
       <c r="B180" s="17"/>
       <c r="C180" s="6"/>
       <c r="D180" s="71"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="58"/>
-      <c r="L180" s="58"/>
-      <c r="M180" s="58"/>
-      <c r="N180" s="58"/>
-      <c r="O180" s="58"/>
-      <c r="P180" s="58"/>
-      <c r="Q180" s="58"/>
-      <c r="R180" s="58"/>
-    </row>
-    <row r="181" spans="2:18" ht="114">
+      <c r="E180" s="71"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+      <c r="H180" s="71"/>
+      <c r="I180" s="71"/>
+      <c r="J180" s="71"/>
+      <c r="K180" s="71"/>
+      <c r="L180" s="71"/>
+      <c r="M180" s="71"/>
+      <c r="N180" s="71"/>
+      <c r="O180" s="71"/>
+      <c r="P180" s="71"/>
+      <c r="Q180" s="71"/>
+      <c r="R180" s="71"/>
+      <c r="S180" s="78"/>
+    </row>
+    <row r="181" spans="2:19" ht="114">
       <c r="B181" s="20">
         <f>B177+1</f>
         <v>45</v>
@@ -28174,199 +28182,205 @@
       <c r="D181" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
-      <c r="J181" s="59"/>
-      <c r="K181" s="59"/>
-      <c r="L181" s="59"/>
-      <c r="M181" s="59"/>
-      <c r="N181" s="59"/>
-      <c r="O181" s="59"/>
-      <c r="P181" s="59"/>
-      <c r="Q181" s="59"/>
-      <c r="R181" s="59"/>
-    </row>
-    <row r="182" spans="2:18">
+      <c r="E181" s="69"/>
+      <c r="F181" s="69"/>
+      <c r="G181" s="69"/>
+      <c r="H181" s="69"/>
+      <c r="I181" s="69"/>
+      <c r="J181" s="69"/>
+      <c r="K181" s="69"/>
+      <c r="L181" s="69"/>
+      <c r="M181" s="69"/>
+      <c r="N181" s="69"/>
+      <c r="O181" s="69"/>
+      <c r="P181" s="69"/>
+      <c r="Q181" s="69"/>
+      <c r="R181" s="69"/>
+      <c r="S181" s="77"/>
+    </row>
+    <row r="182" spans="2:19">
       <c r="B182" s="22"/>
       <c r="C182" s="6"/>
       <c r="D182" s="72"/>
-      <c r="E182" s="60"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="60"/>
-      <c r="I182" s="60"/>
-      <c r="J182" s="60"/>
-      <c r="K182" s="60"/>
-      <c r="L182" s="60"/>
-      <c r="M182" s="60"/>
-      <c r="N182" s="60"/>
-      <c r="O182" s="60"/>
-      <c r="P182" s="60"/>
-      <c r="Q182" s="60"/>
-      <c r="R182" s="60"/>
-    </row>
-    <row r="183" spans="2:18">
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="72"/>
+      <c r="H182" s="72"/>
+      <c r="I182" s="72"/>
+      <c r="J182" s="72"/>
+      <c r="K182" s="72"/>
+      <c r="L182" s="72"/>
+      <c r="M182" s="72"/>
+      <c r="N182" s="72"/>
+      <c r="O182" s="72"/>
+      <c r="P182" s="72"/>
+      <c r="Q182" s="72"/>
+      <c r="R182" s="72"/>
+      <c r="S182" s="78"/>
+    </row>
+    <row r="183" spans="2:19">
       <c r="B183" s="12"/>
       <c r="C183" s="34"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
-      <c r="J183" s="57"/>
-      <c r="K183" s="57"/>
-      <c r="L183" s="57"/>
-      <c r="M183" s="57"/>
-      <c r="N183" s="57"/>
-      <c r="O183" s="57"/>
-      <c r="P183" s="57"/>
-      <c r="Q183" s="57"/>
-      <c r="R183" s="57"/>
-    </row>
-    <row r="184" spans="2:18" ht="44.25">
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="70"/>
+      <c r="L183" s="70"/>
+      <c r="M183" s="70"/>
+      <c r="N183" s="70"/>
+      <c r="O183" s="70"/>
+      <c r="P183" s="70"/>
+      <c r="Q183" s="70"/>
+      <c r="R183" s="70"/>
+      <c r="S183" s="63"/>
+    </row>
+    <row r="184" spans="2:19" ht="44.25">
       <c r="B184" s="17"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="58"/>
-      <c r="G184" s="58"/>
-      <c r="H184" s="58"/>
-      <c r="I184" s="58"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="58"/>
-      <c r="L184" s="58"/>
-      <c r="M184" s="58"/>
-      <c r="N184" s="58"/>
-      <c r="O184" s="58"/>
-      <c r="P184" s="58"/>
-      <c r="Q184" s="58"/>
-      <c r="R184" s="58"/>
-    </row>
-    <row r="185" spans="2:18" ht="114">
+      <c r="D184" s="71"/>
+      <c r="E184" s="71"/>
+      <c r="F184" s="71"/>
+      <c r="G184" s="71"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="71"/>
+      <c r="J184" s="71"/>
+      <c r="K184" s="71"/>
+      <c r="L184" s="71"/>
+      <c r="M184" s="71"/>
+      <c r="N184" s="71"/>
+      <c r="O184" s="71"/>
+      <c r="P184" s="71"/>
+      <c r="Q184" s="71"/>
+      <c r="R184" s="71"/>
+      <c r="S184" s="78"/>
+    </row>
+    <row r="185" spans="2:19" ht="114">
       <c r="B185" s="20">
         <f>B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="59"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
-      <c r="J185" s="59"/>
-      <c r="K185" s="59"/>
-      <c r="L185" s="59"/>
-      <c r="M185" s="59"/>
-      <c r="N185" s="59"/>
-      <c r="O185" s="59"/>
-      <c r="P185" s="59"/>
-      <c r="Q185" s="59"/>
-      <c r="R185" s="59"/>
-    </row>
-    <row r="186" spans="2:18">
+      <c r="D185" s="69"/>
+      <c r="E185" s="69"/>
+      <c r="F185" s="69"/>
+      <c r="G185" s="69"/>
+      <c r="H185" s="69"/>
+      <c r="I185" s="69"/>
+      <c r="J185" s="69"/>
+      <c r="K185" s="69"/>
+      <c r="L185" s="69"/>
+      <c r="M185" s="69"/>
+      <c r="N185" s="69"/>
+      <c r="O185" s="69"/>
+      <c r="P185" s="69"/>
+      <c r="Q185" s="69"/>
+      <c r="R185" s="69"/>
+      <c r="S185" s="77"/>
+    </row>
+    <row r="186" spans="2:19">
       <c r="B186" s="22"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="60"/>
-      <c r="I186" s="60"/>
-      <c r="J186" s="60"/>
-      <c r="K186" s="60"/>
-      <c r="L186" s="60"/>
-      <c r="M186" s="60"/>
-      <c r="N186" s="60"/>
-      <c r="O186" s="60"/>
-      <c r="P186" s="60"/>
-      <c r="Q186" s="60"/>
-      <c r="R186" s="60"/>
-    </row>
-    <row r="187" spans="2:18">
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72"/>
+      <c r="K186" s="72"/>
+      <c r="L186" s="72"/>
+      <c r="M186" s="72"/>
+      <c r="N186" s="72"/>
+      <c r="O186" s="72"/>
+      <c r="P186" s="72"/>
+      <c r="Q186" s="72"/>
+      <c r="R186" s="72"/>
+      <c r="S186" s="78"/>
+    </row>
+    <row r="187" spans="2:19">
       <c r="B187" s="12"/>
       <c r="C187" s="34"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57"/>
-      <c r="H187" s="57"/>
-      <c r="I187" s="57"/>
-      <c r="J187" s="57"/>
-      <c r="K187" s="57"/>
-      <c r="L187" s="57"/>
-      <c r="M187" s="57"/>
-      <c r="N187" s="57"/>
-      <c r="O187" s="57"/>
-      <c r="P187" s="57"/>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
+      <c r="N187" s="70"/>
+      <c r="O187" s="70"/>
+      <c r="P187" s="70"/>
       <c r="Q187" s="57"/>
       <c r="R187" s="57"/>
     </row>
-    <row r="188" spans="2:18" ht="44.25">
+    <row r="188" spans="2:19" ht="44.25">
       <c r="B188" s="17"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="58"/>
-      <c r="L188" s="58"/>
-      <c r="M188" s="58"/>
-      <c r="N188" s="58"/>
-      <c r="O188" s="58"/>
-      <c r="P188" s="58"/>
+      <c r="D188" s="71"/>
+      <c r="E188" s="71"/>
+      <c r="F188" s="71"/>
+      <c r="G188" s="71"/>
+      <c r="H188" s="71"/>
+      <c r="I188" s="71"/>
+      <c r="J188" s="71"/>
+      <c r="K188" s="71"/>
+      <c r="L188" s="71"/>
+      <c r="M188" s="71"/>
+      <c r="N188" s="71"/>
+      <c r="O188" s="71"/>
+      <c r="P188" s="71"/>
       <c r="Q188" s="58"/>
       <c r="R188" s="58"/>
     </row>
-    <row r="189" spans="2:18" ht="114">
+    <row r="189" spans="2:19" ht="114">
       <c r="B189" s="20">
         <f>B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="59"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
-      <c r="J189" s="59"/>
-      <c r="K189" s="59"/>
-      <c r="L189" s="59"/>
-      <c r="M189" s="59"/>
-      <c r="N189" s="59"/>
-      <c r="O189" s="59"/>
-      <c r="P189" s="59"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69"/>
+      <c r="J189" s="69"/>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="69"/>
+      <c r="N189" s="69"/>
+      <c r="O189" s="69"/>
+      <c r="P189" s="69"/>
       <c r="Q189" s="59"/>
       <c r="R189" s="59"/>
     </row>
-    <row r="190" spans="2:18">
+    <row r="190" spans="2:19">
       <c r="B190" s="22"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="60"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="60"/>
-      <c r="I190" s="60"/>
-      <c r="J190" s="60"/>
-      <c r="K190" s="60"/>
-      <c r="L190" s="60"/>
-      <c r="M190" s="60"/>
-      <c r="N190" s="60"/>
-      <c r="O190" s="60"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="72"/>
+      <c r="H190" s="72"/>
+      <c r="I190" s="72"/>
+      <c r="J190" s="72"/>
+      <c r="K190" s="72"/>
+      <c r="L190" s="72"/>
+      <c r="M190" s="72"/>
+      <c r="N190" s="72"/>
+      <c r="O190" s="72"/>
       <c r="P190" s="60"/>
       <c r="Q190" s="60"/>
       <c r="R190" s="60"/>
     </row>
-    <row r="191" spans="2:18">
+    <row r="191" spans="2:19">
       <c r="B191" s="12"/>
       <c r="C191" s="34"/>
       <c r="D191" s="57"/>
@@ -28385,7 +28399,7 @@
       <c r="Q191" s="57"/>
       <c r="R191" s="57"/>
     </row>
-    <row r="192" spans="2:18" ht="44.25">
+    <row r="192" spans="2:19" ht="44.25">
       <c r="B192" s="17"/>
       <c r="C192" s="6"/>
       <c r="D192" s="58"/>

--- a/output7/【河洛文讀注音-閩拼調符】《深慮論》（測試用）.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《深慮論》（測試用）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826039E4-E6D6-40D4-93C8-D5E7A5E8A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F50052-9835-41C2-ABB1-92A2567831AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="28800" windowHeight="13035" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="2096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="2251">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7133,6 +7133,626 @@
   </si>
   <si>
     <t>zut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ding5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ya5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbiat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnoh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lni3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gik1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bboo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pit1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zut7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ding2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggiat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bboo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggui6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggue6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggoo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggnoo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zziok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8777,7 +9397,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -21037,29 +21657,29 @@
       <c r="C6" s="23"/>
       <c r="D6" s="71"/>
       <c r="E6" s="71" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>1800</v>
+        <v>2097</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
       <c r="K6" s="71" t="s">
-        <v>1801</v>
+        <v>2098</v>
       </c>
       <c r="L6" s="71"/>
       <c r="M6" s="71" t="s">
-        <v>1802</v>
+        <v>708</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>1804</v>
+        <v>2099</v>
       </c>
       <c r="O6" s="71" t="s">
-        <v>1806</v>
+        <v>2100</v>
       </c>
       <c r="P6" s="71"/>
       <c r="Q6" s="72"/>
@@ -21191,45 +21811,45 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>1720</v>
+        <v>2102</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72" t="s">
-        <v>1809</v>
+        <v>2104</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>1811</v>
+        <v>2105</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="L10" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>1815</v>
+        <v>2108</v>
       </c>
       <c r="N10" s="72"/>
       <c r="O10" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>1818</v>
+        <v>2110</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="R10" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="S10" s="75"/>
       <c r="V10" s="65"/>
@@ -21355,42 +21975,42 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="72" t="s">
-        <v>1819</v>
+        <v>2111</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="72" t="s">
-        <v>1820</v>
+        <v>2112</v>
       </c>
       <c r="G14" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>1823</v>
+        <v>2114</v>
       </c>
       <c r="K14" s="72"/>
       <c r="L14" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="M14" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="O14" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="Q14" s="72" t="s">
-        <v>1826</v>
+        <v>2117</v>
       </c>
       <c r="R14" s="72"/>
       <c r="S14" s="75"/>
@@ -21521,47 +22141,47 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="72" t="s">
-        <v>1827</v>
+        <v>2118</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>1729</v>
+        <v>2119</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>1809</v>
+        <v>2104</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>1829</v>
+        <v>2120</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="K18" s="72" t="s">
-        <v>1818</v>
+        <v>2110</v>
       </c>
       <c r="L18" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="M18" s="72" t="s">
-        <v>1833</v>
+        <v>2122</v>
       </c>
       <c r="N18" s="72"/>
       <c r="O18" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="P18" s="72" t="s">
-        <v>1835</v>
+        <v>2123</v>
       </c>
       <c r="Q18" s="72" t="s">
-        <v>1809</v>
+        <v>2104</v>
       </c>
       <c r="R18" s="72" t="s">
-        <v>1837</v>
+        <v>599</v>
       </c>
       <c r="S18" s="75"/>
       <c r="V18" s="65"/>
@@ -21689,44 +22309,44 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>1839</v>
+        <v>2124</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>1826</v>
+        <v>2117</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>1737</v>
+        <v>2125</v>
       </c>
       <c r="J22" s="72"/>
       <c r="K22" s="72" t="s">
-        <v>1837</v>
+        <v>599</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O22" s="72" t="s">
-        <v>1841</v>
+        <v>2126</v>
       </c>
       <c r="P22" s="72" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="Q22" s="72" t="s">
-        <v>2081</v>
+        <v>2127</v>
       </c>
       <c r="R22" s="72"/>
       <c r="S22" s="75"/>
@@ -21855,45 +22475,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="72" t="s">
-        <v>1723</v>
+        <v>637</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>1844</v>
+        <v>2128</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>1846</v>
+        <v>2129</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="K26" s="72"/>
       <c r="L26" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="M26" s="72" t="s">
-        <v>1737</v>
+        <v>2125</v>
       </c>
       <c r="N26" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O26" s="72" t="s">
-        <v>1826</v>
+        <v>2117</v>
       </c>
       <c r="P26" s="72" t="s">
-        <v>1827</v>
+        <v>2118</v>
       </c>
       <c r="Q26" s="72"/>
       <c r="R26" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="S26" s="75"/>
       <c r="V26" s="65"/>
@@ -22033,41 +22653,41 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="72" t="s">
-        <v>1849</v>
+        <v>2131</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="F30" s="72" t="s">
-        <v>1851</v>
+        <v>2132</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H30" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="K30" s="72" t="s">
-        <v>1846</v>
+        <v>2129</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="M30" s="72"/>
       <c r="N30" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="O30" s="72" t="s">
-        <v>1855</v>
+        <v>2133</v>
       </c>
       <c r="P30" s="72" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="Q30" s="72"/>
       <c r="R30" s="72"/>
@@ -22207,42 +22827,42 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="72" t="s">
-        <v>2087</v>
+        <v>2135</v>
       </c>
       <c r="E34" s="72" t="s">
-        <v>1857</v>
+        <v>2136</v>
       </c>
       <c r="F34" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="H34" s="72"/>
       <c r="I34" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="J34" s="72" t="s">
-        <v>1861</v>
+        <v>2138</v>
       </c>
       <c r="K34" s="72" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="L34" s="72" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M34" s="72" t="s">
-        <v>1866</v>
+        <v>744</v>
       </c>
       <c r="N34" s="72"/>
       <c r="O34" s="72" t="s">
-        <v>1867</v>
+        <v>2139</v>
       </c>
       <c r="P34" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="Q34" s="72" t="s">
-        <v>1720</v>
+        <v>2102</v>
       </c>
       <c r="R34" s="72"/>
       <c r="S34" s="75"/>
@@ -22373,47 +22993,47 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="E38" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="F38" s="72" t="s">
-        <v>1868</v>
+        <v>846</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="H38" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="I38" s="72" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K38" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="L38" s="72"/>
       <c r="M38" s="72" t="s">
-        <v>1872</v>
+        <v>2142</v>
       </c>
       <c r="N38" s="72" t="s">
-        <v>1874</v>
+        <v>2143</v>
       </c>
       <c r="O38" s="72" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="P38" s="72" t="s">
-        <v>1866</v>
+        <v>744</v>
       </c>
       <c r="Q38" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="R38" s="72" t="s">
-        <v>1876</v>
+        <v>2144</v>
       </c>
       <c r="S38" s="75"/>
       <c r="V38" s="65"/>
@@ -22541,45 +23161,45 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="72" t="s">
-        <v>1878</v>
+        <v>2145</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="72" t="s">
-        <v>1880</v>
+        <v>2146</v>
       </c>
       <c r="G42" s="72" t="s">
-        <v>1802</v>
+        <v>708</v>
       </c>
       <c r="H42" s="72" t="s">
-        <v>1882</v>
+        <v>2147</v>
       </c>
       <c r="I42" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="J42" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="K42" s="72" t="s">
-        <v>1883</v>
+        <v>2148</v>
       </c>
       <c r="L42" s="72" t="s">
-        <v>1885</v>
+        <v>2149</v>
       </c>
       <c r="M42" s="72"/>
       <c r="N42" s="72" t="s">
-        <v>1802</v>
+        <v>708</v>
       </c>
       <c r="O42" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="P42" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="Q42" s="72" t="s">
-        <v>1887</v>
+        <v>2150</v>
       </c>
       <c r="R42" s="72" t="s">
-        <v>1889</v>
+        <v>2151</v>
       </c>
       <c r="S42" s="75"/>
       <c r="V42" s="65"/>
@@ -22707,45 +23327,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="E46" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="F46" s="72" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>1726</v>
+        <v>2152</v>
       </c>
       <c r="H46" s="72"/>
       <c r="I46" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="J46" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="K46" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="L46" s="72" t="s">
-        <v>1894</v>
+        <v>2154</v>
       </c>
       <c r="M46" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="N46" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="O46" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="P46" s="72" t="s">
-        <v>1895</v>
+        <v>2155</v>
       </c>
       <c r="Q46" s="72"/>
       <c r="R46" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="S46" s="75"/>
       <c r="V46" s="65"/>
@@ -22875,47 +23495,47 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="E50" s="72" t="s">
-        <v>1897</v>
+        <v>2156</v>
       </c>
       <c r="F50" s="72" t="s">
-        <v>1899</v>
+        <v>2157</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>1901</v>
+        <v>2158</v>
       </c>
       <c r="H50" s="72" t="s">
-        <v>1837</v>
+        <v>599</v>
       </c>
       <c r="I50" s="72" t="s">
-        <v>1750</v>
+        <v>2159</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>1903</v>
+        <v>2160</v>
       </c>
       <c r="K50" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="L50" s="72" t="s">
-        <v>1905</v>
+        <v>2161</v>
       </c>
       <c r="M50" s="72" t="s">
-        <v>1906</v>
+        <v>605</v>
       </c>
       <c r="N50" s="72"/>
       <c r="O50" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="P50" s="72" t="s">
-        <v>1907</v>
+        <v>2162</v>
       </c>
       <c r="Q50" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="R50" s="72" t="s">
-        <v>1857</v>
+        <v>2136</v>
       </c>
       <c r="S50" s="75"/>
       <c r="V50" s="65"/>
@@ -23043,45 +23663,45 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
       <c r="D54" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>1909</v>
+        <v>2163</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>1910</v>
+        <v>2164</v>
       </c>
       <c r="G54" s="72"/>
       <c r="H54" s="72" t="s">
-        <v>1899</v>
+        <v>2157</v>
       </c>
       <c r="I54" s="72" t="s">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="J54" s="72" t="s">
-        <v>1857</v>
+        <v>2136</v>
       </c>
       <c r="K54" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="L54" s="72" t="s">
-        <v>1913</v>
+        <v>2166</v>
       </c>
       <c r="M54" s="72" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="N54" s="72"/>
       <c r="O54" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="P54" s="72" t="s">
-        <v>1916</v>
+        <v>2167</v>
       </c>
       <c r="Q54" s="72" t="s">
-        <v>1917</v>
+        <v>2168</v>
       </c>
       <c r="R54" s="72" t="s">
-        <v>1882</v>
+        <v>2147</v>
       </c>
       <c r="S54" s="75"/>
       <c r="V54" s="65"/>
@@ -23209,45 +23829,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="72" t="s">
-        <v>1918</v>
+        <v>2169</v>
       </c>
       <c r="E58" s="72" t="s">
-        <v>1920</v>
+        <v>2170</v>
       </c>
       <c r="F58" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="H58" s="72" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="I58" s="72" t="s">
-        <v>1866</v>
+        <v>744</v>
       </c>
       <c r="J58" s="72"/>
       <c r="K58" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="L58" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="M58" s="72" t="s">
-        <v>1728</v>
+        <v>2171</v>
       </c>
       <c r="N58" s="72" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="O58" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="P58" s="72" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="Q58" s="72"/>
       <c r="R58" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="S58" s="75"/>
       <c r="V58" s="65"/>
@@ -23377,47 +23997,47 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="E62" s="72" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F62" s="72" t="s">
-        <v>1926</v>
+        <v>2172</v>
       </c>
       <c r="G62" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="H62" s="72" t="s">
-        <v>1927</v>
+        <v>2173</v>
       </c>
       <c r="I62" s="72" t="s">
-        <v>1880</v>
+        <v>2146</v>
       </c>
       <c r="J62" s="72"/>
       <c r="K62" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="L62" s="72" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="M62" s="72" t="s">
-        <v>1930</v>
+        <v>2174</v>
       </c>
       <c r="N62" s="72" t="s">
-        <v>1931</v>
+        <v>2175</v>
       </c>
       <c r="O62" s="72" t="s">
-        <v>1933</v>
+        <v>2176</v>
       </c>
       <c r="P62" s="72" t="s">
-        <v>1935</v>
+        <v>904</v>
       </c>
       <c r="Q62" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="R62" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="S62" s="75"/>
       <c r="V62" s="65"/>
@@ -23544,42 +24164,42 @@
       <c r="B66" s="22"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72" t="s">
-        <v>1939</v>
+        <v>2178</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="72" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H66" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="I66" s="72" t="s">
-        <v>1729</v>
+        <v>2119</v>
       </c>
       <c r="J66" s="72"/>
       <c r="K66" s="72" t="s">
-        <v>1943</v>
+        <v>2179</v>
       </c>
       <c r="L66" s="72" t="s">
-        <v>1732</v>
+        <v>2180</v>
       </c>
       <c r="M66" s="72" t="s">
-        <v>1945</v>
+        <v>2181</v>
       </c>
       <c r="N66" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O66" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="P66" s="72" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="Q66" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="R66" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="S66" s="75"/>
       <c r="V66" s="65"/>
@@ -23706,41 +24326,41 @@
       <c r="B70" s="22"/>
       <c r="D70" s="72"/>
       <c r="E70" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="F70" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="G70" s="72" t="s">
-        <v>1927</v>
+        <v>2173</v>
       </c>
       <c r="H70" s="72" t="s">
-        <v>1737</v>
+        <v>2125</v>
       </c>
       <c r="I70" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="J70" s="72"/>
       <c r="K70" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="L70" s="72" t="s">
-        <v>1949</v>
+        <v>2182</v>
       </c>
       <c r="M70" s="72" t="s">
-        <v>1951</v>
+        <v>2183</v>
       </c>
       <c r="N70" s="72" t="s">
-        <v>1907</v>
+        <v>2162</v>
       </c>
       <c r="O70" s="72" t="s">
-        <v>1830</v>
+        <v>2184</v>
       </c>
       <c r="P70" s="72" t="s">
-        <v>1899</v>
+        <v>2157</v>
       </c>
       <c r="Q70" s="72" t="s">
-        <v>1756</v>
+        <v>2185</v>
       </c>
       <c r="R70" s="72"/>
       <c r="S70" s="75"/>
@@ -23867,43 +24487,43 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="72" t="s">
-        <v>1741</v>
+        <v>2186</v>
       </c>
       <c r="E74" s="72" t="s">
-        <v>1939</v>
+        <v>2178</v>
       </c>
       <c r="F74" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="G74" s="72" t="s">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="H74" s="72" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="I74" s="72"/>
       <c r="J74" s="72" t="s">
-        <v>1955</v>
+        <v>2187</v>
       </c>
       <c r="K74" s="72"/>
       <c r="L74" s="72" t="s">
-        <v>1957</v>
+        <v>2188</v>
       </c>
       <c r="M74" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="N74" s="72" t="s">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="O74" s="72" t="s">
-        <v>1899</v>
+        <v>2157</v>
       </c>
       <c r="P74" s="72"/>
       <c r="Q74" s="72" t="s">
-        <v>1958</v>
+        <v>1856</v>
       </c>
       <c r="R74" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="S74" s="75"/>
       <c r="V74" s="65"/>
@@ -24031,45 +24651,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="72" t="s">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="E78" s="72" t="s">
-        <v>1957</v>
+        <v>2188</v>
       </c>
       <c r="F78" s="72"/>
       <c r="G78" s="72" t="s">
-        <v>1930</v>
+        <v>2174</v>
       </c>
       <c r="H78" s="72" t="s">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="I78" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="J78" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="K78" s="72" t="s">
-        <v>1959</v>
+        <v>2189</v>
       </c>
       <c r="L78" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="M78" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="N78" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="O78" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="P78" s="72" t="s">
-        <v>1820</v>
+        <v>2112</v>
       </c>
       <c r="Q78" s="72"/>
       <c r="R78" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="S78" s="75"/>
       <c r="V78" s="65"/>
@@ -24189,35 +24809,35 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="E82" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="F82" s="72" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="G82" s="72"/>
       <c r="H82" s="72" t="s">
-        <v>1960</v>
+        <v>2190</v>
       </c>
       <c r="I82" s="72" t="s">
-        <v>1849</v>
+        <v>2131</v>
       </c>
       <c r="J82" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="K82" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="L82" s="72" t="s">
-        <v>1820</v>
+        <v>2112</v>
       </c>
       <c r="M82" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="N82" s="72" t="s">
-        <v>1735</v>
+        <v>2191</v>
       </c>
       <c r="O82" s="72"/>
       <c r="P82" s="72"/>
@@ -24351,47 +24971,47 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="72" t="s">
-        <v>1728</v>
+        <v>2171</v>
       </c>
       <c r="E86" s="72" t="s">
-        <v>1962</v>
+        <v>2192</v>
       </c>
       <c r="F86" s="72" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G86" s="72" t="s">
-        <v>1965</v>
+        <v>2193</v>
       </c>
       <c r="H86" s="72" t="s">
-        <v>1939</v>
+        <v>2178</v>
       </c>
       <c r="I86" s="72" t="s">
-        <v>1916</v>
+        <v>2167</v>
       </c>
       <c r="J86" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K86" s="72" t="s">
-        <v>1967</v>
+        <v>2194</v>
       </c>
       <c r="L86" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="M86" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="N86" s="72" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="O86" s="72"/>
       <c r="P86" s="72" t="s">
-        <v>1970</v>
+        <v>2195</v>
       </c>
       <c r="Q86" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="R86" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="S86" s="75"/>
       <c r="V86" s="7"/>
@@ -24521,47 +25141,47 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="72" t="s">
-        <v>1826</v>
+        <v>2117</v>
       </c>
       <c r="E90" s="72" t="s">
-        <v>1737</v>
+        <v>2125</v>
       </c>
       <c r="F90" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="G90" s="72" t="s">
-        <v>1971</v>
+        <v>2196</v>
       </c>
       <c r="H90" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="I90" s="72" t="s">
-        <v>1973</v>
+        <v>2197</v>
       </c>
       <c r="J90" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K90" s="72"/>
       <c r="L90" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="M90" s="72" t="s">
-        <v>1939</v>
+        <v>2178</v>
       </c>
       <c r="N90" s="72" t="s">
-        <v>1916</v>
+        <v>2167</v>
       </c>
       <c r="O90" s="72" t="s">
-        <v>1974</v>
+        <v>2198</v>
       </c>
       <c r="P90" s="72" t="s">
-        <v>1916</v>
+        <v>2167</v>
       </c>
       <c r="Q90" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="R90" s="72" t="s">
-        <v>1976</v>
+        <v>2199</v>
       </c>
       <c r="S90" s="75"/>
       <c r="V90" s="7"/>
@@ -24691,47 +25311,47 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="72" t="s">
-        <v>1978</v>
+        <v>2200</v>
       </c>
       <c r="E94" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="F94" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="G94" s="72" t="s">
-        <v>1980</v>
+        <v>2201</v>
       </c>
       <c r="H94" s="72"/>
       <c r="I94" s="72" t="s">
-        <v>1982</v>
+        <v>2202</v>
       </c>
       <c r="J94" s="72" t="s">
-        <v>1962</v>
+        <v>2192</v>
       </c>
       <c r="K94" s="72" t="s">
-        <v>1984</v>
+        <v>1755</v>
       </c>
       <c r="L94" s="72" t="s">
-        <v>1882</v>
+        <v>2147</v>
       </c>
       <c r="M94" s="72" t="s">
-        <v>1986</v>
+        <v>2203</v>
       </c>
       <c r="N94" s="72" t="s">
-        <v>1917</v>
+        <v>2168</v>
       </c>
       <c r="O94" s="72" t="s">
-        <v>1802</v>
+        <v>708</v>
       </c>
       <c r="P94" s="72" t="s">
-        <v>1988</v>
+        <v>2204</v>
       </c>
       <c r="Q94" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="R94" s="72" t="s">
-        <v>1839</v>
+        <v>2124</v>
       </c>
       <c r="S94" s="75"/>
       <c r="V94" s="7"/>
@@ -24859,45 +25479,45 @@
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="22"/>
       <c r="D98" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="E98" s="72" t="s">
-        <v>1971</v>
+        <v>2196</v>
       </c>
       <c r="F98" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="G98" s="72" t="s">
-        <v>1989</v>
+        <v>2205</v>
       </c>
       <c r="H98" s="72"/>
       <c r="I98" s="72" t="s">
-        <v>1991</v>
+        <v>2206</v>
       </c>
       <c r="J98" s="72" t="s">
-        <v>1945</v>
+        <v>2181</v>
       </c>
       <c r="K98" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="L98" s="72" t="s">
-        <v>1887</v>
+        <v>2150</v>
       </c>
       <c r="M98" s="72" t="s">
-        <v>1993</v>
+        <v>2207</v>
       </c>
       <c r="N98" s="72"/>
       <c r="O98" s="72" t="s">
-        <v>1995</v>
+        <v>512</v>
       </c>
       <c r="P98" s="72" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="Q98" s="72" t="s">
-        <v>1996</v>
+        <v>2208</v>
       </c>
       <c r="R98" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="S98" s="75"/>
       <c r="V98" s="7"/>
@@ -25025,45 +25645,45 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="72" t="s">
-        <v>1819</v>
+        <v>2111</v>
       </c>
       <c r="E102" s="72" t="s">
-        <v>1971</v>
+        <v>2196</v>
       </c>
       <c r="F102" s="72"/>
       <c r="G102" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="H102" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="I102" s="72" t="s">
-        <v>1897</v>
+        <v>2156</v>
       </c>
       <c r="J102" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="K102" s="72" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="L102" s="72" t="s">
-        <v>1907</v>
+        <v>2162</v>
       </c>
       <c r="M102" s="72" t="s">
-        <v>1998</v>
+        <v>2209</v>
       </c>
       <c r="N102" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="O102" s="72" t="s">
-        <v>1830</v>
+        <v>2184</v>
       </c>
       <c r="P102" s="72" t="s">
-        <v>2000</v>
+        <v>2210</v>
       </c>
       <c r="Q102" s="72"/>
       <c r="R102" s="72" t="s">
-        <v>2001</v>
+        <v>2211</v>
       </c>
       <c r="S102" s="75"/>
       <c r="V102" s="7"/>
@@ -25191,44 +25811,44 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="E106" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="F106" s="72" t="s">
-        <v>1960</v>
+        <v>2190</v>
       </c>
       <c r="G106" s="72" t="s">
-        <v>2002</v>
+        <v>2212</v>
       </c>
       <c r="H106" s="72" t="s">
-        <v>1849</v>
+        <v>2131</v>
       </c>
       <c r="I106" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="J106" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K106" s="72" t="s">
-        <v>1851</v>
+        <v>2132</v>
       </c>
       <c r="L106" s="72"/>
       <c r="M106" s="72" t="s">
-        <v>2004</v>
+        <v>2213</v>
       </c>
       <c r="N106" s="72" t="s">
-        <v>1723</v>
+        <v>637</v>
       </c>
       <c r="O106" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="P106" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="Q106" s="72" t="s">
-        <v>2006</v>
+        <v>2214</v>
       </c>
       <c r="R106" s="72"/>
       <c r="S106" s="75"/>
@@ -25359,47 +25979,47 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="E110" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="F110" s="72" t="s">
-        <v>2008</v>
+        <v>2215</v>
       </c>
       <c r="G110" s="72" t="s">
-        <v>1835</v>
+        <v>2123</v>
       </c>
       <c r="H110" s="72" t="s">
-        <v>2010</v>
+        <v>2216</v>
       </c>
       <c r="I110" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="J110" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K110" s="72" t="s">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="L110" s="72"/>
       <c r="M110" s="72" t="s">
-        <v>2012</v>
+        <v>754</v>
       </c>
       <c r="N110" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O110" s="72" t="s">
-        <v>1809</v>
+        <v>2104</v>
       </c>
       <c r="P110" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="Q110" s="72" t="s">
-        <v>1820</v>
+        <v>2112</v>
       </c>
       <c r="R110" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="S110" s="75"/>
       <c r="V110" s="7"/>
@@ -25525,43 +26145,43 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="72" t="s">
-        <v>2014</v>
+        <v>2218</v>
       </c>
       <c r="E114" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="F114" s="72"/>
       <c r="G114" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="H114" s="72" t="s">
-        <v>2090</v>
+        <v>2219</v>
       </c>
       <c r="I114" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="J114" s="72" t="s">
-        <v>2001</v>
+        <v>2211</v>
       </c>
       <c r="K114" s="72"/>
       <c r="L114" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="M114" s="72" t="s">
-        <v>1729</v>
+        <v>2119</v>
       </c>
       <c r="N114" s="72" t="s">
-        <v>2015</v>
+        <v>551</v>
       </c>
       <c r="O114" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="P114" s="72" t="s">
-        <v>1740</v>
+        <v>2220</v>
       </c>
       <c r="Q114" s="72"/>
       <c r="R114" s="72" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S114" s="75"/>
       <c r="V114" s="7"/>
@@ -25689,45 +26309,45 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="72" t="s">
-        <v>2018</v>
+        <v>2221</v>
       </c>
       <c r="E118" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="F118" s="72" t="s">
-        <v>1835</v>
+        <v>2123</v>
       </c>
       <c r="G118" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="H118" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="I118" s="72"/>
       <c r="J118" s="72" t="s">
-        <v>2019</v>
+        <v>2222</v>
       </c>
       <c r="K118" s="72" t="s">
-        <v>2020</v>
+        <v>882</v>
       </c>
       <c r="L118" s="72"/>
       <c r="M118" s="72" t="s">
-        <v>1723</v>
+        <v>637</v>
       </c>
       <c r="N118" s="72" t="s">
-        <v>1851</v>
+        <v>2132</v>
       </c>
       <c r="O118" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="P118" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="Q118" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="R118" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="S118" s="75"/>
       <c r="V118" s="7"/>
@@ -25854,42 +26474,42 @@
       <c r="B122" s="22"/>
       <c r="D122" s="72"/>
       <c r="E122" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="F122" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="G122" s="72" t="s">
-        <v>1822</v>
+        <v>2113</v>
       </c>
       <c r="H122" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="I122" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="J122" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="K122" s="72"/>
       <c r="L122" s="72" t="s">
-        <v>2022</v>
+        <v>2223</v>
       </c>
       <c r="M122" s="72" t="s">
-        <v>2023</v>
+        <v>2224</v>
       </c>
       <c r="N122" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O122" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="P122" s="72"/>
       <c r="Q122" s="72" t="s">
-        <v>2024</v>
+        <v>2225</v>
       </c>
       <c r="R122" s="72" t="s">
-        <v>1995</v>
+        <v>512</v>
       </c>
       <c r="S122" s="75"/>
       <c r="V122" s="7"/>
@@ -26015,43 +26635,43 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="E126" s="72" t="s">
-        <v>2026</v>
+        <v>2226</v>
       </c>
       <c r="F126" s="72"/>
       <c r="G126" s="72" t="s">
-        <v>2022</v>
+        <v>2223</v>
       </c>
       <c r="H126" s="72" t="s">
-        <v>1927</v>
+        <v>2173</v>
       </c>
       <c r="I126" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="J126" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="K126" s="72"/>
       <c r="L126" s="72" t="s">
-        <v>2024</v>
+        <v>2225</v>
       </c>
       <c r="M126" s="72" t="s">
-        <v>1995</v>
+        <v>512</v>
       </c>
       <c r="N126" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="O126" s="72" t="s">
-        <v>2028</v>
+        <v>2227</v>
       </c>
       <c r="P126" s="72"/>
       <c r="Q126" s="72" t="s">
-        <v>1740</v>
+        <v>2220</v>
       </c>
       <c r="R126" s="72" t="s">
-        <v>1837</v>
+        <v>599</v>
       </c>
       <c r="S126" s="75"/>
       <c r="V126" s="7"/>
@@ -26181,47 +26801,47 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="22"/>
       <c r="D130" s="72" t="s">
-        <v>1741</v>
+        <v>2186</v>
       </c>
       <c r="E130" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="F130" s="72" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G130" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="H130" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="I130" s="72" t="s">
-        <v>2032</v>
+        <v>2228</v>
       </c>
       <c r="J130" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="K130" s="72" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="L130" s="72" t="s">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="M130" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="N130" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="O130" s="72" t="s">
-        <v>2020</v>
+        <v>882</v>
       </c>
       <c r="P130" s="72"/>
       <c r="Q130" s="72" t="s">
-        <v>2033</v>
+        <v>2229</v>
       </c>
       <c r="R130" s="72" t="s">
-        <v>1741</v>
+        <v>2186</v>
       </c>
       <c r="S130" s="75"/>
       <c r="V130" s="7"/>
@@ -26335,31 +26955,31 @@
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="22"/>
       <c r="D134" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="E134" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="F134" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="G134" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="H134" s="72" t="s">
-        <v>2032</v>
+        <v>2228</v>
       </c>
       <c r="I134" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="J134" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="K134" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="L134" s="72" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="M134" s="72"/>
       <c r="N134" s="72"/>
@@ -26493,45 +27113,45 @@
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="22"/>
       <c r="D138" s="72" t="s">
-        <v>2034</v>
+        <v>2230</v>
       </c>
       <c r="E138" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="F138" s="72" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="G138" s="72" t="s">
-        <v>1847</v>
+        <v>2130</v>
       </c>
       <c r="H138" s="72"/>
       <c r="I138" s="72" t="s">
-        <v>1897</v>
+        <v>2156</v>
       </c>
       <c r="J138" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="K138" s="72" t="s">
-        <v>1720</v>
+        <v>2102</v>
       </c>
       <c r="L138" s="72" t="s">
-        <v>1729</v>
+        <v>2119</v>
       </c>
       <c r="M138" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="N138" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O138" s="72" t="s">
-        <v>1880</v>
+        <v>2146</v>
       </c>
       <c r="P138" s="72"/>
       <c r="Q138" s="72" t="s">
-        <v>2036</v>
+        <v>484</v>
       </c>
       <c r="R138" s="72" t="s">
-        <v>1851</v>
+        <v>2132</v>
       </c>
       <c r="S138" s="75"/>
       <c r="V138" s="7"/>
@@ -26659,45 +27279,45 @@
     <row r="142" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="22"/>
       <c r="D142" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="E142" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="F142" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="G142" s="72" t="s">
-        <v>1844</v>
+        <v>2128</v>
       </c>
       <c r="H142" s="72" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="I142" s="72"/>
       <c r="J142" s="72" t="s">
-        <v>2036</v>
+        <v>484</v>
       </c>
       <c r="K142" s="72" t="s">
-        <v>1829</v>
+        <v>2120</v>
       </c>
       <c r="L142" s="72" t="s">
-        <v>2037</v>
+        <v>661</v>
       </c>
       <c r="M142" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="N142" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="O142" s="72" t="s">
-        <v>1844</v>
+        <v>2128</v>
       </c>
       <c r="P142" s="72" t="s">
-        <v>1971</v>
+        <v>2196</v>
       </c>
       <c r="Q142" s="72"/>
       <c r="R142" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="S142" s="75"/>
       <c r="V142" s="7"/>
@@ -26825,45 +27445,45 @@
     <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="72" t="s">
-        <v>2038</v>
+        <v>2231</v>
       </c>
       <c r="E146" s="72" t="s">
-        <v>1918</v>
+        <v>2169</v>
       </c>
       <c r="F146" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="G146" s="72" t="s">
-        <v>2012</v>
+        <v>754</v>
       </c>
       <c r="H146" s="72" t="s">
-        <v>1937</v>
+        <v>2177</v>
       </c>
       <c r="I146" s="72" t="s">
-        <v>2040</v>
+        <v>2232</v>
       </c>
       <c r="J146" s="72" t="s">
-        <v>1926</v>
+        <v>2172</v>
       </c>
       <c r="K146" s="72"/>
       <c r="L146" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="M146" s="72" t="s">
-        <v>1824</v>
+        <v>2115</v>
       </c>
       <c r="N146" s="72" t="s">
-        <v>1910</v>
+        <v>2041</v>
       </c>
       <c r="O146" s="72" t="s">
-        <v>2018</v>
+        <v>2221</v>
       </c>
       <c r="P146" s="72" t="s">
-        <v>2043</v>
+        <v>2233</v>
       </c>
       <c r="Q146" s="72"/>
       <c r="R146" s="72" t="s">
-        <v>1726</v>
+        <v>2152</v>
       </c>
       <c r="S146" s="75"/>
       <c r="V146" s="7"/>
@@ -26989,42 +27609,42 @@
     <row r="150" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="22"/>
       <c r="D150" s="72" t="s">
-        <v>1917</v>
+        <v>2168</v>
       </c>
       <c r="E150" s="72" t="s">
-        <v>2044</v>
+        <v>2234</v>
       </c>
       <c r="F150" s="72"/>
       <c r="G150" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="H150" s="72" t="s">
-        <v>2046</v>
+        <v>2235</v>
       </c>
       <c r="I150" s="72" t="s">
-        <v>1874</v>
+        <v>2143</v>
       </c>
       <c r="J150" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="K150" s="72" t="s">
-        <v>1868</v>
+        <v>846</v>
       </c>
       <c r="L150" s="72"/>
       <c r="M150" s="72" t="s">
-        <v>1995</v>
+        <v>512</v>
       </c>
       <c r="N150" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="O150" s="72" t="s">
-        <v>2048</v>
+        <v>2236</v>
       </c>
       <c r="P150" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="Q150" s="72" t="s">
-        <v>2044</v>
+        <v>2234</v>
       </c>
       <c r="R150" s="72"/>
       <c r="S150" s="75"/>
@@ -27155,47 +27775,47 @@
     <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="72" t="s">
-        <v>1996</v>
+        <v>2208</v>
       </c>
       <c r="E154" s="72" t="s">
-        <v>2050</v>
+        <v>519</v>
       </c>
       <c r="F154" s="72" t="s">
-        <v>1903</v>
+        <v>2160</v>
       </c>
       <c r="G154" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="H154" s="72" t="s">
-        <v>2052</v>
+        <v>2237</v>
       </c>
       <c r="I154" s="72" t="s">
-        <v>1743</v>
+        <v>2238</v>
       </c>
       <c r="J154" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="K154" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="L154" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="M154" s="72" t="s">
-        <v>2054</v>
+        <v>2239</v>
       </c>
       <c r="N154" s="72" t="s">
-        <v>1945</v>
+        <v>2181</v>
       </c>
       <c r="O154" s="72"/>
       <c r="P154" s="72" t="s">
-        <v>2056</v>
+        <v>2240</v>
       </c>
       <c r="Q154" s="72" t="s">
-        <v>1812</v>
+        <v>2106</v>
       </c>
       <c r="R154" s="72" t="s">
-        <v>1727</v>
+        <v>2153</v>
       </c>
       <c r="S154" s="75"/>
       <c r="V154" s="7"/>
@@ -27323,45 +27943,45 @@
     <row r="158" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="22"/>
       <c r="D158" s="72" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E158" s="72"/>
       <c r="F158" s="72" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G158" s="72" t="s">
-        <v>2002</v>
+        <v>2212</v>
       </c>
       <c r="H158" s="72" t="s">
-        <v>2018</v>
+        <v>2221</v>
       </c>
       <c r="I158" s="72" t="s">
-        <v>2059</v>
+        <v>2241</v>
       </c>
       <c r="J158" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="K158" s="72" t="s">
-        <v>2060</v>
+        <v>2242</v>
       </c>
       <c r="L158" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="M158" s="72" t="s">
-        <v>1839</v>
+        <v>2124</v>
       </c>
       <c r="N158" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="O158" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="P158" s="72" t="s">
-        <v>1930</v>
+        <v>2174</v>
       </c>
       <c r="Q158" s="72"/>
       <c r="R158" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="S158" s="75"/>
       <c r="V158" s="7"/>
@@ -27489,44 +28109,44 @@
     <row r="162" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="22"/>
       <c r="D162" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="E162" s="72" t="s">
-        <v>1907</v>
+        <v>2162</v>
       </c>
       <c r="F162" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="G162" s="72" t="s">
-        <v>2054</v>
+        <v>2239</v>
       </c>
       <c r="H162" s="72" t="s">
-        <v>1746</v>
+        <v>836</v>
       </c>
       <c r="I162" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="J162" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K162" s="72"/>
       <c r="L162" s="72" t="s">
-        <v>2001</v>
+        <v>2211</v>
       </c>
       <c r="M162" s="72" t="s">
-        <v>1798</v>
+        <v>2096</v>
       </c>
       <c r="N162" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="O162" s="72" t="s">
-        <v>2061</v>
+        <v>2243</v>
       </c>
       <c r="P162" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="Q162" s="72" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="R162" s="72"/>
       <c r="S162" s="75"/>
@@ -27657,47 +28277,47 @@
     <row r="166" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="22"/>
       <c r="D166" s="72" t="s">
-        <v>1906</v>
+        <v>605</v>
       </c>
       <c r="E166" s="72" t="s">
-        <v>2034</v>
+        <v>2230</v>
       </c>
       <c r="F166" s="72" t="s">
-        <v>1890</v>
+        <v>2116</v>
       </c>
       <c r="G166" s="72" t="s">
-        <v>1844</v>
+        <v>2128</v>
       </c>
       <c r="H166" s="72" t="s">
-        <v>2063</v>
+        <v>2244</v>
       </c>
       <c r="I166" s="72" t="s">
-        <v>2046</v>
+        <v>2235</v>
       </c>
       <c r="J166" s="72" t="s">
-        <v>1754</v>
+        <v>2121</v>
       </c>
       <c r="K166" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="L166" s="72"/>
       <c r="M166" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="N166" s="72" t="s">
-        <v>1748</v>
+        <v>2245</v>
       </c>
       <c r="O166" s="72" t="s">
-        <v>1869</v>
+        <v>2140</v>
       </c>
       <c r="P166" s="72" t="s">
-        <v>2065</v>
+        <v>2246</v>
       </c>
       <c r="Q166" s="72" t="s">
-        <v>2065</v>
+        <v>2246</v>
       </c>
       <c r="R166" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="S166" s="75"/>
       <c r="V166" s="7"/>
@@ -27825,45 +28445,45 @@
       <c r="B170" s="22"/>
       <c r="C170" s="6"/>
       <c r="D170" s="72" t="s">
-        <v>1851</v>
+        <v>2132</v>
       </c>
       <c r="E170" s="72"/>
       <c r="F170" s="72" t="s">
-        <v>2093</v>
+        <v>1749</v>
       </c>
       <c r="G170" s="72" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H170" s="72" t="s">
-        <v>2087</v>
+        <v>2135</v>
       </c>
       <c r="I170" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="J170" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="K170" s="72" t="s">
-        <v>2067</v>
+        <v>2247</v>
       </c>
       <c r="L170" s="72"/>
       <c r="M170" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="N170" s="72" t="s">
-        <v>2068</v>
+        <v>2248</v>
       </c>
       <c r="O170" s="72" t="s">
-        <v>1729</v>
+        <v>2119</v>
       </c>
       <c r="P170" s="72" t="s">
-        <v>1859</v>
+        <v>2137</v>
       </c>
       <c r="Q170" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="R170" s="72" t="s">
-        <v>1927</v>
+        <v>2173</v>
       </c>
       <c r="S170" s="78"/>
     </row>
@@ -27990,45 +28610,45 @@
       <c r="B174" s="22"/>
       <c r="C174" s="6"/>
       <c r="D174" s="72" t="s">
-        <v>2070</v>
+        <v>2249</v>
       </c>
       <c r="E174" s="72" t="s">
-        <v>1871</v>
+        <v>2141</v>
       </c>
       <c r="F174" s="72"/>
       <c r="G174" s="72" t="s">
-        <v>2001</v>
+        <v>2211</v>
       </c>
       <c r="H174" s="72" t="s">
-        <v>2071</v>
+        <v>2250</v>
       </c>
       <c r="I174" s="72" t="s">
-        <v>1831</v>
+        <v>601</v>
       </c>
       <c r="J174" s="72" t="s">
-        <v>1814</v>
+        <v>2107</v>
       </c>
       <c r="K174" s="72" t="s">
-        <v>2068</v>
+        <v>2248</v>
       </c>
       <c r="L174" s="72" t="s">
-        <v>1927</v>
+        <v>2173</v>
       </c>
       <c r="M174" s="72" t="s">
-        <v>1808</v>
+        <v>2103</v>
       </c>
       <c r="N174" s="72" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="O174" s="72"/>
       <c r="P174" s="72" t="s">
-        <v>1816</v>
+        <v>2109</v>
       </c>
       <c r="Q174" s="72" t="s">
-        <v>1837</v>
+        <v>599</v>
       </c>
       <c r="R174" s="72" t="s">
-        <v>1807</v>
+        <v>2101</v>
       </c>
       <c r="S174" s="78"/>
     </row>
@@ -28113,10 +28733,10 @@
       <c r="B178" s="22"/>
       <c r="C178" s="6"/>
       <c r="D178" s="72" t="s">
-        <v>1855</v>
+        <v>2133</v>
       </c>
       <c r="E178" s="72" t="s">
-        <v>2020</v>
+        <v>882</v>
       </c>
       <c r="F178" s="72"/>
       <c r="G178" s="72"/>
